--- a/biology/Médecine/Volvulus/Volvulus.xlsx
+++ b/biology/Médecine/Volvulus/Volvulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Volvulus est un mot latin pour indiquer le retournement d'un tube sur lui-même en faisant une boucle qui s'étrangle à la base.
-Ce terme est utilisé en médecine appliqué au tube digestif[1] pour désigner certains cas d'obstruction mécanique au transit intestinal[2]. 
+Ce terme est utilisé en médecine appliqué au tube digestif pour désigner certains cas d'obstruction mécanique au transit intestinal. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les sièges les plus fréquents de volvulus sont : 
-le côlon (sigmoïde et cæcum par ordre de fréquence) ; c'est le cas le plus fréquent[3] ;
+le côlon (sigmoïde et cæcum par ordre de fréquence) ; c'est le cas le plus fréquent ;
 l'estomac (chez les patients porteurs d'une hernie hiatale : l'estomac est remonté vers le thorax  à travers le diaphragme et il peut se retourner sur lui-même en cette localisation).</t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Tableau clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est essentiellement celui d'occlusion de la partie de tube digestif ou siège le volvulus. 
-Le diagnostic est confirmé par radiographie, échographie[4].
+Le diagnostic est confirmé par radiographie, échographie.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À titre d'exemple[5], de 1960 à 1980, 137 patients atteints de coliques volvulus (52 % du cæcum, 3 % le côlon transverse, 2 % angle colique gauche, et 43 % sigmoïde) ont été vus à la clinique Mayo. Parmi les 59 patients avec volvulus sigmoïde, quatre (7 %) ont eu un infarctus du côlon.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À titre d'exemple, de 1960 à 1980, 137 patients atteints de coliques volvulus (52 % du cæcum, 3 % le côlon transverse, 2 % angle colique gauche, et 43 % sigmoïde) ont été vus à la clinique Mayo. Parmi les 59 patients avec volvulus sigmoïde, quatre (7 %) ont eu un infarctus du côlon.
 </t>
         </is>
       </c>
@@ -607,12 +625,14 @@
           <t>Mortalité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas cité ci-dessus, la survie totale avec volvulus sigmoïde était de 93 %. 
 Il y avait 71 patients avec volvulus caecal. Des décompressions coloscopiques ont été accomplies chez deux de ces patients et chez 15 patients (21 %) touchés au  côlon. 
 La mortalité par gangrène était de 33 %. La mortalité totale pour les patients à volvulus caecal a été de 17 %.La mortalité pour toutes les formes de volvulus chez les patients avec deux points viables était de 11 %. Mortalité pour tous les patients atteints de volvulus était de 14 %.
-De manière générale, c'est une maladie grave, entraînant une mortalité assez élevée[6]. 
+De manière générale, c'est une maladie grave, entraînant une mortalité assez élevée. 
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut être endoscopique dans le cas du sigmoïde ou chirurgical pour le reste des localisations et pour les formes compliquées.
 </t>
